--- a/biology/Histoire de la zoologie et de la botanique/Pierre_Bonnet/Pierre_Bonnet.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Pierre_Bonnet/Pierre_Bonnet.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Pierre Bonnet, né le 1er septembre 1897 à Villefranche-de-Rouergue et mort le 16 août 1990 à Toulouse, est un arachnologiste français. Son nom reste associé à Bibliographia Araneorum, un immense ouvrage (6 481 pages) consacré à l’étude des publications sur les araignées, fruit de quarante ans de travail.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il est le fils d’Eugène Bonnet, professeur d'espagnol au collège de Vic-en-Bigorre, et de Clotilde, fille du comte Jean-Baptiste de Villeneuve. Il étudie à Vic en Bigorre.
 avant d’être appelé sous les drapeaux en janvier 1916. Il est démobilisé en avril 1919 avec la Croix de guerre. Il reprend ses études à Montpellier et à Toulouse où il est diplômé en zoologie en 1922. Il devient alors préparateur professeur honoraire à l'université  des sciences de Toulouse où il passera toute sa carrière. Il prend sa retraite en 1962 comme maître-assistant, n'ayant jamais pu atteindre le grade de maître de conférences.
